--- a/02_workspace/01_study/03_Light_field_camera/02_thesis/review_list.xlsx
+++ b/02_workspace/01_study/03_Light_field_camera/02_thesis/review_list.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\梶原裕希\Documents\GitHub\citizen_thesis\02_workspace\01_study\03_Light_field_camera\02_論文\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\survey-2\Documents\GitHub\citizen_thesis\02_workspace\01_study\03_Light_field_camera\02_thesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02CB2186-E73A-43A4-AA2F-501CE62C896F}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDF6DB5F-73D5-4964-9544-CBFB8F9788B6}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9420" firstSheet="2" activeTab="2" xr2:uid="{6709C8F9-FA89-4D38-ABEF-604EE607A8A1}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="153">
   <si>
     <t>番号</t>
     <rPh sb="0" eb="2">
@@ -855,6 +855,43 @@
   <si>
     <t>http://www.cc.kyoto-su.ac.jp/~kano/pdf/study/student/NakajimaPaper.pdf</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>http://openaccess.thecvf.com/content_cvpr_2018/papers/Shin_EPINET_A_Fully-Convolutional_CVPR_2018_paper.pdf</t>
+  </si>
+  <si>
+    <t>EPINET: A Fully-Convolutional Neural Network Using Epipolar Geometry for Depth from Light Field Images</t>
+  </si>
+  <si>
+    <t>論文</t>
+    <rPh sb="0" eb="2">
+      <t>ロンブン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://www.cv-foundation.org/openaccess/content_iccv_2015/papers/Wang_Occlusion-Aware_Depth_Estimation_ICCV_2015_paper.pdf</t>
+  </si>
+  <si>
+    <t>Occlusion-aware Depth Estimation Using Light-field Cameras</t>
+  </si>
+  <si>
+    <t>Depth from Shading, Defocus, and Correspondence Using Light-Field Angular Coherence</t>
+  </si>
+  <si>
+    <t>https://www.cv-foundation.org/openaccess/content_cvpr_2015/papers/Tao_Depth_From_Shading_2015_CVPR_paper.pdf</t>
+  </si>
+  <si>
+    <t>https://link.springer.com/content/pdf/10.1007%2F978-3-319-16181-5_41.pdf</t>
+  </si>
+  <si>
+    <t>Depth Estimation for Glossy Surfaces with Light-Field Cameras</t>
+  </si>
+  <si>
+    <t>https://link.springer.com/content/pdf/10.1007%2F978-3-642-19309-5_15.pdf</t>
+  </si>
+  <si>
+    <t>Full-Resolution Depth Map Estimation from an Aliased Plenoptic Light Field</t>
   </si>
 </sst>
 </file>
@@ -894,18 +931,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -925,7 +956,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -949,9 +980,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="56" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1332,7 +1360,7 @@
       <c r="B3" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="8">
         <v>43199</v>
       </c>
       <c r="D3" s="4" t="s">
@@ -1349,7 +1377,7 @@
       <c r="B4" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="8">
         <v>43199</v>
       </c>
       <c r="D4" s="4" t="s">
@@ -1369,13 +1397,13 @@
       <c r="B5" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="8">
         <v>43199</v>
       </c>
       <c r="D5" s="4">
         <v>2</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="F5" s="10" t="s">
         <v>97</v>
       </c>
     </row>
@@ -1386,13 +1414,13 @@
       <c r="B6" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6" s="8">
         <v>43199</v>
       </c>
       <c r="D6" s="4">
         <v>2</v>
       </c>
-      <c r="F6" s="11"/>
+      <c r="F6" s="10"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A7" s="4">
@@ -1401,7 +1429,7 @@
       <c r="B7" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C7" s="8">
         <v>43199</v>
       </c>
       <c r="D7" s="4" t="s">
@@ -1418,7 +1446,7 @@
       <c r="B8" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8" s="8">
         <v>43199</v>
       </c>
       <c r="D8" s="4" t="s">
@@ -1435,7 +1463,7 @@
       <c r="B9" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="C9" s="9">
+      <c r="C9" s="8">
         <v>43199</v>
       </c>
       <c r="D9" s="4" t="s">
@@ -1452,7 +1480,7 @@
       <c r="B10" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="C10" s="9">
+      <c r="C10" s="8">
         <v>43199</v>
       </c>
       <c r="D10" s="4" t="s">
@@ -1469,7 +1497,7 @@
       <c r="B11" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="C11" s="9">
+      <c r="C11" s="8">
         <v>43199</v>
       </c>
       <c r="D11" s="4" t="s">
@@ -1486,7 +1514,7 @@
       <c r="B12" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="C12" s="9">
+      <c r="C12" s="8">
         <v>43200</v>
       </c>
       <c r="D12" s="4" t="s">
@@ -1500,7 +1528,7 @@
       <c r="B13" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="C13" s="9">
+      <c r="C13" s="8">
         <v>43200</v>
       </c>
       <c r="D13" s="4" t="s">
@@ -1514,7 +1542,7 @@
       <c r="B14" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="C14" s="9">
+      <c r="C14" s="8">
         <v>43200</v>
       </c>
       <c r="D14" s="4" t="s">
@@ -1528,7 +1556,7 @@
       <c r="B15" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="C15" s="9">
+      <c r="C15" s="8">
         <v>43200</v>
       </c>
       <c r="D15" s="4" t="s">
@@ -1542,7 +1570,7 @@
       <c r="B16" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="C16" s="9">
+      <c r="C16" s="8">
         <v>43200</v>
       </c>
       <c r="D16" s="4" t="s">
@@ -1556,7 +1584,7 @@
       <c r="B17" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="C17" s="9">
+      <c r="C17" s="8">
         <v>43201</v>
       </c>
       <c r="D17" s="4" t="s">
@@ -1570,7 +1598,7 @@
       <c r="B18" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="C18" s="9">
+      <c r="C18" s="8">
         <v>43201</v>
       </c>
       <c r="D18" s="4" t="s">
@@ -1584,7 +1612,7 @@
       <c r="B19" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="C19" s="9">
+      <c r="C19" s="8">
         <v>43201</v>
       </c>
       <c r="D19" s="4" t="s">
@@ -1598,7 +1626,7 @@
       <c r="B20" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="C20" s="9">
+      <c r="C20" s="8">
         <v>43201</v>
       </c>
       <c r="D20" s="4" t="s">
@@ -1612,7 +1640,7 @@
       <c r="B21" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="C21" s="9">
+      <c r="C21" s="8">
         <v>43201</v>
       </c>
       <c r="D21" s="4" t="s">
@@ -1626,7 +1654,7 @@
       <c r="B22" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="C22" s="9">
+      <c r="C22" s="8">
         <v>43201</v>
       </c>
       <c r="D22" s="4" t="s">
@@ -1640,7 +1668,7 @@
       <c r="B23" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="C23" s="9">
+      <c r="C23" s="8">
         <v>43201</v>
       </c>
       <c r="D23" s="4" t="s">
@@ -1654,7 +1682,7 @@
       <c r="B24" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="C24" s="9">
+      <c r="C24" s="8">
         <v>43201</v>
       </c>
       <c r="D24" s="4" t="s">
@@ -1668,7 +1696,7 @@
       <c r="B25" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="C25" s="9">
+      <c r="C25" s="8">
         <v>43201</v>
       </c>
       <c r="D25" s="4" t="s">
@@ -2046,10 +2074,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42845210-D513-453D-ADDF-DA6DCCD60533}">
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
@@ -2094,10 +2122,10 @@
       <c r="C3" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="11" t="s">
         <v>52</v>
       </c>
     </row>
@@ -2114,7 +2142,7 @@
       <c r="D4" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="E4" s="12"/>
+      <c r="E4" s="11"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" s="6">
@@ -2129,7 +2157,7 @@
       <c r="D5" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E5" s="12"/>
+      <c r="E5" s="11"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" s="6">
@@ -2144,7 +2172,7 @@
       <c r="D6" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="E6" s="12"/>
+      <c r="E6" s="11"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7" s="6">
@@ -2159,7 +2187,7 @@
       <c r="D7" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="E7" s="12"/>
+      <c r="E7" s="11"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A8" s="6">
@@ -2174,7 +2202,7 @@
       <c r="D8" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E8" s="12"/>
+      <c r="E8" s="11"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A9" s="6">
@@ -2228,7 +2256,7 @@
       <c r="C12" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D12" s="13" t="s">
+      <c r="D12" s="12" t="s">
         <v>57</v>
       </c>
     </row>
@@ -2242,7 +2270,7 @@
       <c r="C13" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D13" s="13"/>
+      <c r="D13" s="12"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A14" s="6">
@@ -2259,7 +2287,7 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A15" s="8">
+      <c r="A15" s="6">
         <v>13</v>
       </c>
       <c r="B15" s="4" t="s">
@@ -2396,6 +2424,76 @@
       </c>
       <c r="D24" s="2" t="s">
         <v>80</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A25" s="4">
+        <v>23</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="4">
+        <v>24</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="31.5" x14ac:dyDescent="0.4">
+      <c r="A27" s="4">
+        <v>25</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A28" s="4">
+        <v>26</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A29" s="4">
+        <v>27</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -2568,7 +2666,7 @@
       <c r="B12" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="13"/>
+      <c r="D12" s="12"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A13" s="6">
@@ -2577,7 +2675,7 @@
       <c r="B13" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D13" s="13"/>
+      <c r="D13" s="12"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A14" s="6">

--- a/02_workspace/01_study/03_Light_field_camera/02_thesis/review_list.xlsx
+++ b/02_workspace/01_study/03_Light_field_camera/02_thesis/review_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\survey-2\Documents\GitHub\citizen_thesis\02_workspace\01_study\03_Light_field_camera\02_thesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDF6DB5F-73D5-4964-9544-CBFB8F9788B6}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F6E9C83-F9AD-4849-8C65-AC99CB1CDD03}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9420" firstSheet="2" activeTab="2" xr2:uid="{6709C8F9-FA89-4D38-ABEF-604EE607A8A1}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="157">
   <si>
     <t>番号</t>
     <rPh sb="0" eb="2">
@@ -892,6 +892,18 @@
   </si>
   <si>
     <t>Full-Resolution Depth Map Estimation from an Aliased Plenoptic Light Field</t>
+  </si>
+  <si>
+    <t>Decoding, Calibration and Rectification for Lenselet-Based Plenoptic Cameras</t>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/stamp/stamp.jsp?tp=&amp;arnumber=6618981</t>
+  </si>
+  <si>
+    <t>Linear Volumetric Focus for Light Field Cameras</t>
+  </si>
+  <si>
+    <t>http://delivery.acm.org/10.1145/2670000/2665074/a15-dansereau.pdf?ip=133.11.80.67&amp;id=2665074&amp;acc=ACTIVE%20SERVICE&amp;key=D2341B890AD12BFE%2E925D03907F1B22EF%2E4D4702B0C3E38B35%2E4D4702B0C3E38B35&amp;__acm__=1531398826_9f9cdcfc67d8b4e86bf9619c7ad19400</t>
   </si>
 </sst>
 </file>
@@ -2074,10 +2086,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42845210-D513-453D-ADDF-DA6DCCD60533}">
-  <dimension ref="A1:E29"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
@@ -2494,6 +2506,34 @@
       </c>
       <c r="D29" s="2" t="s">
         <v>151</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A30" s="4">
+        <v>28</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A31" s="4">
+        <v>29</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>156</v>
       </c>
     </row>
   </sheetData>

--- a/02_workspace/01_study/03_Light_field_camera/02_thesis/review_list.xlsx
+++ b/02_workspace/01_study/03_Light_field_camera/02_thesis/review_list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\survey-2\Documents\GitHub\citizen_thesis\02_workspace\01_study\03_Light_field_camera\02_thesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F6E9C83-F9AD-4849-8C65-AC99CB1CDD03}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E21ACA8D-4535-4420-BBF0-9F4729A0C07E}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9420" firstSheet="2" activeTab="2" xr2:uid="{6709C8F9-FA89-4D38-ABEF-604EE607A8A1}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9420" firstSheet="1" activeTab="1" xr2:uid="{6709C8F9-FA89-4D38-ABEF-604EE607A8A1}"/>
   </bookViews>
   <sheets>
     <sheet name="不明単語リスト" sheetId="6" r:id="rId1"/>
@@ -943,12 +943,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -968,7 +974,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -998,6 +1004,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1415,7 +1424,7 @@
       <c r="D5" s="4">
         <v>2</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="F5" s="11" t="s">
         <v>97</v>
       </c>
     </row>
@@ -1432,7 +1441,7 @@
       <c r="D6" s="4">
         <v>2</v>
       </c>
-      <c r="F6" s="10"/>
+      <c r="F6" s="11"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A7" s="4">
@@ -1845,8 +1854,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B98AAD3-EF24-4168-8BE4-050B6A413801}">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView topLeftCell="C7" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
@@ -2080,7 +2089,7 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2088,8 +2097,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42845210-D513-453D-ADDF-DA6DCCD60533}">
   <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
@@ -2137,7 +2146,7 @@
       <c r="D3" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="12" t="s">
         <v>52</v>
       </c>
     </row>
@@ -2154,7 +2163,7 @@
       <c r="D4" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="E4" s="11"/>
+      <c r="E4" s="12"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" s="6">
@@ -2169,7 +2178,7 @@
       <c r="D5" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E5" s="11"/>
+      <c r="E5" s="12"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" s="6">
@@ -2184,7 +2193,7 @@
       <c r="D6" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="E6" s="11"/>
+      <c r="E6" s="12"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7" s="6">
@@ -2199,7 +2208,7 @@
       <c r="D7" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="E7" s="11"/>
+      <c r="E7" s="12"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A8" s="6">
@@ -2214,7 +2223,7 @@
       <c r="D8" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E8" s="11"/>
+      <c r="E8" s="12"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A9" s="6">
@@ -2268,7 +2277,7 @@
       <c r="C12" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D12" s="12" t="s">
+      <c r="D12" s="13" t="s">
         <v>57</v>
       </c>
     </row>
@@ -2282,7 +2291,7 @@
       <c r="C13" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D13" s="12"/>
+      <c r="D13" s="13"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A14" s="6">
@@ -2355,7 +2364,7 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A19" s="4">
+      <c r="A19" s="6">
         <v>17</v>
       </c>
       <c r="B19" s="4" t="s">
@@ -2369,7 +2378,7 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A20" s="4">
+      <c r="A20" s="10">
         <v>18</v>
       </c>
       <c r="B20" s="4" t="s">
@@ -2439,7 +2448,7 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A25" s="4">
+      <c r="A25" s="10">
         <v>23</v>
       </c>
       <c r="B25" s="4" t="s">
@@ -2453,7 +2462,7 @@
       </c>
     </row>
     <row r="26" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="4">
+      <c r="A26" s="10">
         <v>24</v>
       </c>
       <c r="B26" s="4" t="s">
@@ -2467,7 +2476,7 @@
       </c>
     </row>
     <row r="27" spans="1:4" ht="31.5" x14ac:dyDescent="0.4">
-      <c r="A27" s="4">
+      <c r="A27" s="10">
         <v>25</v>
       </c>
       <c r="B27" s="4" t="s">
@@ -2481,7 +2490,7 @@
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A28" s="4">
+      <c r="A28" s="10">
         <v>26</v>
       </c>
       <c r="B28" s="4" t="s">
@@ -2495,7 +2504,7 @@
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A29" s="4">
+      <c r="A29" s="10">
         <v>27</v>
       </c>
       <c r="B29" s="4" t="s">
@@ -2522,7 +2531,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:4" ht="63" x14ac:dyDescent="0.4">
       <c r="A31" s="4">
         <v>29</v>
       </c>
@@ -2556,7 +2565,7 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
@@ -2706,7 +2715,7 @@
       <c r="B12" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="12"/>
+      <c r="D12" s="13"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A13" s="6">
@@ -2715,7 +2724,7 @@
       <c r="B13" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D13" s="12"/>
+      <c r="D13" s="13"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A14" s="6">
